--- a/templates/Final/Tracker_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Tracker_Config_Template_Annotated_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1387E19-6247-B841-AC95-5FF1270FE962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53577E58-CE40-A94E-899F-3D1AE0395F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22680" windowHeight="22760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22680" windowHeight="22760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Tracker Configuration Template - Instructions</t>
   </si>
   <si>
-    <t>Created: 2025-12-02</t>
-  </si>
-  <si>
     <t>OVERVIEW</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Your banner sheet must consist of the white area only</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF366092"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -348,6 +342,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -405,11 +405,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,29 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,74 +751,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -829,7 +832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -844,190 +847,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="E9" s="10">
+        <v>20230810</v>
+      </c>
+      <c r="F9" s="10">
+        <v>20230828</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10">
+        <v>20240806</v>
+      </c>
+      <c r="F10" s="10">
+        <v>20240906</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="15">
-        <v>20230810</v>
-      </c>
-      <c r="F9" s="15">
-        <v>20230828</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="15">
-        <v>20240806</v>
-      </c>
-      <c r="F10" s="15">
-        <v>20240906</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>20250818</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="10">
         <v>20250910</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1047,129 +1043,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1191,55 +1187,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>74</v>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1261,185 +1257,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
